--- a/opengever/bundle/tests/assets/os_migration/os_test_handles_temporary_dupplicate_position.xlsx
+++ b/opengever/bundle/tests/assets/os_migration/os_test_handles_temporary_dupplicate_position.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niklausjohner/Work/development/opengever.core2/opengever/bundle/tests/assets/os_migration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EA7974-AA47-6E49-90CC-E4BE5E5DDFB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC39BF1-1043-864C-A435-A3CD6A70042E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="500" windowWidth="34100" windowHeight="17260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="500" windowWidth="34100" windowHeight="17260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ordnungssystem" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="101">
   <si>
     <t>reference_number</t>
   </si>
@@ -1608,9 +1608,9 @@
   <sheetPr codeName="Blatt1"/>
   <dimension ref="A1:AC501"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7:R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2006,7 +2006,7 @@
         <v>67</v>
       </c>
       <c r="N7" s="15">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="P7" s="15" t="s">
         <v>26</v>
@@ -2059,7 +2059,7 @@
         <v>67</v>
       </c>
       <c r="N8" s="15">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="P8" s="15" t="s">
         <v>26</v>
@@ -2100,6 +2100,21 @@
       <c r="I9" s="68"/>
       <c r="J9" s="68"/>
       <c r="K9" s="60"/>
+      <c r="L9" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="N9" s="15">
+        <v>5</v>
+      </c>
+      <c r="P9" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="R9" s="15">
+        <v>30</v>
+      </c>
       <c r="S9" s="61"/>
       <c r="T9" s="62"/>
       <c r="U9" s="62"/>
@@ -2131,6 +2146,21 @@
       <c r="I10" s="70"/>
       <c r="J10" s="70"/>
       <c r="K10" s="71"/>
+      <c r="L10" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="N10" s="15">
+        <v>5</v>
+      </c>
+      <c r="P10" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="R10" s="15">
+        <v>30</v>
+      </c>
       <c r="S10" s="61"/>
       <c r="T10" s="62"/>
       <c r="U10" s="62"/>
@@ -15363,12 +15393,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <oc_termin_lookup_helper xmlns="82675a1d-2274-46ff-95b6-7e628f04e7b8" xsi:nil="true"/>
+    <oc_traktandum_lookup xmlns="96CA5592-7E49-4C69-936A-77E0F19F316B"/>
+    <oc_termin_lookup xmlns="96CA5592-7E49-4C69-936A-77E0F19F316B"/>
+    <oc_document_is_common xmlns="82675a1d-2274-46ff-95b6-7e628f04e7b8" xsi:nil="true"/>
+    <oc_traktandum_lookup_helper xmlns="82675a1d-2274-46ff-95b6-7e628f04e7b8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15563,21 +15596,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <oc_termin_lookup_helper xmlns="82675a1d-2274-46ff-95b6-7e628f04e7b8" xsi:nil="true"/>
-    <oc_traktandum_lookup xmlns="96CA5592-7E49-4C69-936A-77E0F19F316B"/>
-    <oc_termin_lookup xmlns="96CA5592-7E49-4C69-936A-77E0F19F316B"/>
-    <oc_document_is_common xmlns="82675a1d-2274-46ff-95b6-7e628f04e7b8" xsi:nil="true"/>
-    <oc_traktandum_lookup_helper xmlns="82675a1d-2274-46ff-95b6-7e628f04e7b8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5B73656-B986-42B5-A6F0-2CB7C4F8F507}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63B1394A-812F-4D99-A0FC-B41B7F31C120}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="82675a1d-2274-46ff-95b6-7e628f04e7b8"/>
+    <ds:schemaRef ds:uri="96CA5592-7E49-4C69-936A-77E0F19F316B"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -15602,12 +15635,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63B1394A-812F-4D99-A0FC-B41B7F31C120}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5B73656-B986-42B5-A6F0-2CB7C4F8F507}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="82675a1d-2274-46ff-95b6-7e628f04e7b8"/>
-    <ds:schemaRef ds:uri="96CA5592-7E49-4C69-936A-77E0F19F316B"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>